--- a/uds3-calculator.xlsx
+++ b/uds3-calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yijiangpang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yijiang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D21063-7E3B-574F-AF22-BD2F2FF1A9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47C679F-25F9-4509-934C-C2357E190E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1740" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator_NC2MCI" sheetId="8" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="274">
   <si>
     <t>Enter Raw Score</t>
   </si>
@@ -845,7 +845,43 @@
     <t>Eatimated Probability of Conversion</t>
   </si>
   <si>
-    <t>The probability conversion and its accuracy were shown above</t>
+    <t xml:space="preserve">The negative result indicates that the patient is predicted to remain MCI in the next three years: The probability of conversion is less than or equal to 50% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The probability of conversion and its accuracy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The proportion of subjects predicted accurately (positive vs. negative) using the previously collected data.  The higher value indicates higher accuracy.  (Range: 0 - 100) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The positive result indicates that the patient is predicted to develop AD in the next three years: The probability of conversion is greater than 50%. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The exact estimated probability is shown on the left.   The higher value means that he/she is more likely to convert to AD within the next three years.  (Range: 0 - 100) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The positive result indicates that the patient is predicted to develop MCI in the next four years: The probability of conversion is greater than 50%. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The negative result indicates that the patient is predicted to remain normal condition in the next four years: The probability of conversion is less than or equal to 50% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The exact estimated probability is shown on the left.   The higher value means that he/she is more likely to convert to MCI within the next four years.  (Range: 0 - 100) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The positive result indicates that the patient is predicted to develop aMCI in the next four years: The probability of conversion is greater than 50%. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The exact estimated probability is shown on the left.   The higher value means that he/she is more likely to convert to aMCI within the next four years.  (Range: 0 - 100) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The positive result indicates that the patient is predicted to develop AD in the next two years: The probability of conversion is greater than 50%. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The negative result indicates that the patient is predicted to remain MCI in the next two years: The probability of conversion is less than or equal to 50% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The exact estimated probability is shown on the left.   The higher value means that he/she is more likely to convert to AD within the next two years.  (Range: 0 - 100) </t>
   </si>
 </sst>
 </file>
@@ -963,7 +999,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -978,12 +1014,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1094,11 +1124,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1112,8 +1142,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1121,7 +1150,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1134,20 +1163,19 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1157,127 +1185,7 @@
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1968,53 +1876,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272A8F7E-22C2-EA4A-932F-52841B38A7D1}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="129.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>80</v>
       </c>
@@ -2022,7 +1929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2030,7 +1937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
@@ -2038,7 +1945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
@@ -2046,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>83</v>
       </c>
@@ -2054,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -2062,7 +1969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -2070,7 +1977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -2078,7 +1985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>84</v>
       </c>
@@ -2086,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -2094,7 +2001,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>85</v>
       </c>
@@ -2102,7 +2009,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>53</v>
       </c>
@@ -2110,7 +2017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>86</v>
       </c>
@@ -2118,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -2126,7 +2033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>87</v>
       </c>
@@ -2134,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>88</v>
       </c>
@@ -2142,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>89</v>
       </c>
@@ -2150,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
@@ -2158,75 +2065,86 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" ht="40" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>261</v>
+    <row r="25" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
+        <v>262</v>
       </c>
       <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="C25" s="20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="12" t="str">
+      <c r="B26" s="11" t="str">
         <f>IF(NC2MCI_LinearRegression!P2&gt;0.5, "Positive", "Negative")</f>
         <v>Positive</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="C26" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B27" s="12">
-        <f>NC2MCI_LinearRegression!P2</f>
-        <v>0.89179003347099561</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="B27" s="21" t="str">
+        <f>LEFT(NC2MCI_LinearRegression!P2*100,4)&amp;"%"</f>
+        <v>89.1%</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="13" cm="1">
-        <f t="array" ref="B28">INDEX(NC2MCI_LinearRegression!B86:B95, MATCH(TRUE, NC2MCI_LinearRegression!A86:A95&gt;NC2MCI_LinearRegression!P2,0))</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="str" cm="1">
+        <f t="array" ref="B28">LEFT(INDEX(NC2MCI_LinearRegression!B86:B95, MATCH(TRUE, NC2MCI_LinearRegression!A86:A95&gt;NC2MCI_LinearRegression!P2,0))*100,4)&amp;"%"</f>
+        <v>95%</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
-    </row>
-    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B31" s="18"/>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2258,53 +2176,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D990317-4A4D-B748-9A9B-A79DA6A710D6}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" customWidth="1"/>
+    <col min="1" max="1" width="40.44140625" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="102.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="128.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>80</v>
       </c>
@@ -2312,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2320,7 +2238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>82</v>
       </c>
@@ -2328,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2336,7 +2254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -2344,7 +2262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
@@ -2352,7 +2270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>53</v>
       </c>
@@ -2360,7 +2278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>83</v>
       </c>
@@ -2368,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>126</v>
       </c>
@@ -2376,7 +2294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -2384,7 +2302,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>122</v>
       </c>
@@ -2392,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>84</v>
       </c>
@@ -2400,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>88</v>
       </c>
@@ -2408,7 +2326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>123</v>
       </c>
@@ -2416,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>127</v>
       </c>
@@ -2424,7 +2342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
@@ -2432,7 +2350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>124</v>
       </c>
@@ -2440,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>125</v>
       </c>
@@ -2448,78 +2366,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" ht="40" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>261</v>
+    <row r="25" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
+        <v>262</v>
       </c>
       <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="C25" s="20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="12" t="str">
+      <c r="B26" s="11" t="str">
         <f>IF(NC2aMCI_LinearRegression!P2&gt;0.5, "Positive", "Negative")</f>
         <v>Positive</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="C26" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B27" s="12">
-        <f>NC2aMCI_LinearRegression!P2</f>
-        <v>0.84859704555418214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="B27" s="21" t="str">
+        <f>LEFT(NC2aMCI_LinearRegression!P2*100,4)&amp;"%"</f>
+        <v>84.8%</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="13" cm="1">
-        <f t="array" ref="B28">INDEX(NC2aMCI_LinearRegression!B86:B95, MATCH(TRUE, NC2aMCI_LinearRegression!A86:A95&gt;NC2aMCI_LinearRegression!P2,0))</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="str" cm="1">
+        <f t="array" ref="B28">LEFT(INDEX(NC2aMCI_LinearRegression!B86:B95, MATCH(TRUE, NC2aMCI_LinearRegression!A86:A95&gt;NC2aMCI_LinearRegression!P2,0))*100,4)&amp;"%"</f>
+        <v>90%</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2551,52 +2480,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5882D007-4743-314A-AB42-F54F4C3FA18E}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="42.77734375" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="103.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="3" max="3" width="145" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="2">
         <v>0.5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>131</v>
       </c>
@@ -2604,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>123</v>
       </c>
@@ -2612,7 +2541,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>132</v>
       </c>
@@ -2620,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>133</v>
       </c>
@@ -2628,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>134</v>
       </c>
@@ -2636,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>82</v>
       </c>
@@ -2644,7 +2573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>135</v>
       </c>
@@ -2652,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>89</v>
       </c>
@@ -2660,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>136</v>
       </c>
@@ -2668,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>137</v>
       </c>
@@ -2676,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>138</v>
       </c>
@@ -2684,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>139</v>
       </c>
@@ -2692,7 +2621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>83</v>
       </c>
@@ -2700,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>140</v>
       </c>
@@ -2708,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>126</v>
       </c>
@@ -2716,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -2724,7 +2653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -2732,7 +2661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>141</v>
       </c>
@@ -2740,78 +2669,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" ht="40" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>261</v>
+    <row r="25" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
+        <v>262</v>
       </c>
       <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="C25" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="12" t="str">
+      <c r="B26" s="11" t="str">
         <f>IF(MCI2AD3_LinearRegression!P2&gt;0.5, "Positive", "Negative")</f>
         <v>Positive</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="C26" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B27" s="12">
-        <f>MCI2AD3_LinearRegression!P2</f>
-        <v>0.95362935915789171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="B27" s="21" t="str">
+        <f>LEFT(MCI2AD3_LinearRegression!P2*100,4)&amp;"%"</f>
+        <v>95.3%</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="13" cm="1">
-        <f t="array" ref="B28">INDEX(MCI2AD3_LinearRegression!B86:B95, MATCH(TRUE, MCI2AD3_LinearRegression!A86:A95&gt;MCI2AD3_LinearRegression!P2,0))</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="str" cm="1">
+        <f t="array" ref="B28">LEFT(INDEX(MCI2AD3_LinearRegression!B86:B95, MATCH(TRUE, MCI2AD3_LinearRegression!A86:A95&gt;MCI2AD3_LinearRegression!P2,0))*100,4)&amp;"%"</f>
+        <v>95%</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2838,58 +2778,58 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Number of non-F-words and rule violation errors in 1 minute_x000a_0–15_x000a_95=Physical problem 96=Cognitive/behavior problem 97=Other problem_x000a_98 = Verbal refusal_x000a_-4 = Not available: UDS form submitted did not collect data in this way, or a skip pattern precludes re" sqref="A21" xr:uid="{9050C0D6-C346-9348-821A-6FDF1A67A34F}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC7DCF9-9624-1D46-B36D-49399EB04BA4}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.44140625" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="130" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>132</v>
       </c>
@@ -2897,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>133</v>
       </c>
@@ -2905,7 +2845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>123</v>
       </c>
@@ -2913,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>128</v>
       </c>
@@ -2921,7 +2861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>134</v>
       </c>
@@ -2929,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>82</v>
       </c>
@@ -2937,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>87</v>
       </c>
@@ -2945,7 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>137</v>
       </c>
@@ -2953,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>142</v>
       </c>
@@ -2961,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>139</v>
       </c>
@@ -2969,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>136</v>
       </c>
@@ -2977,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>143</v>
       </c>
@@ -2985,7 +2925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>144</v>
       </c>
@@ -2993,7 +2933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>83</v>
       </c>
@@ -3001,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>145</v>
       </c>
@@ -3009,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>255</v>
       </c>
@@ -3017,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>126</v>
       </c>
@@ -3025,7 +2965,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -3033,78 +2973,89 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" ht="40" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>261</v>
+    <row r="25" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
+        <v>262</v>
       </c>
       <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="C25" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="12" t="str">
+      <c r="B26" s="11" t="str">
         <f>IF(MCI2AD2_LinearRegression!P2&gt;0.5, "Positive", "Negative")</f>
         <v>Positive</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="C26" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B27" s="12">
-        <f>MCI2AD2_LinearRegression!P2</f>
-        <v>0.83824149360175704</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="B27" s="11" t="str">
+        <f>LEFT(MCI2AD2_LinearRegression!P2*100,4)&amp;"%"</f>
+        <v>83.8%</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="13" cm="1">
-        <f t="array" ref="B28">INDEX(MCI2AD2_LinearRegression!B95:B104, MATCH(TRUE, MCI2AD2_LinearRegression!A95:A104&gt;MCI2AD2_LinearRegression!P2,0))</f>
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="str" cm="1">
+        <f t="array" ref="B28">LEFT(INDEX(MCI2AD2_LinearRegression!B95:B104, MATCH(TRUE, MCI2AD2_LinearRegression!A95:A104&gt;MCI2AD2_LinearRegression!P2,0))*100,4)&amp;"%"</f>
+        <v>94%</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3138,24 +3089,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6590C0C6-9CE9-E044-8B09-18756A07C030}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -3202,7 +3153,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3241,7 +3192,7 @@
         <v>0.89179003347099561</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3276,7 +3227,7 @@
         <v>3.4774981823919297E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3311,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3346,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3381,7 +3332,7 @@
         <v>-4.7442266208891401E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3416,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3451,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3486,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3521,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3556,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3591,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3626,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3661,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3696,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3731,7 +3682,7 @@
         <v>-1.45919291969528E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3766,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -3801,14 +3752,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19">
         <v>8</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>-6.8219059008758294E-5</v>
       </c>
       <c r="D19" s="1"/>
@@ -3836,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3871,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -3906,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3945,20 +3896,20 @@
         <v xml:space="preserve"> 9.0</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="20">
+      <c r="L22" s="1">
         <v>13</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="1">
         <v>0.222222222</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="1">
         <v>0.222222222</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="17">
         <v>0.31848531000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -3993,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -4028,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -4063,7 +4014,7 @@
         <v>-2.2325780180434501E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -4098,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -4133,7 +4084,7 @@
         <v>1.53925315940334E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -4168,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -4203,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -4230,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -4257,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -4284,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -4311,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -4338,7 +4289,7 @@
         <v>-5.10351115060127E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -4365,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -4392,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -4447,7 +4398,7 @@
         <v>-0.20178175235369966</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -4502,7 +4453,7 @@
         <v>-6.0793901172090214E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -4557,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -4584,7 +4535,7 @@
         <v>3.8313910323611297E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -4611,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -4638,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -4665,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -4692,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -4747,7 +4698,7 @@
         <v>0.60203861052281327</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -4774,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -4801,7 +4752,7 @@
         <v>-4.2362648006733303E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -4828,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -4855,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -4882,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -4909,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -4964,7 +4915,7 @@
         <v>0.79621327815536669</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -4991,7 +4942,7 @@
         <v>4.8867082458885797E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -5018,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -5045,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -5072,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -5099,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -5126,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -5153,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -5208,7 +5159,7 @@
         <v>0.23333073212325098</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -5235,7 +5186,7 @@
         <v>9.3312399801821298E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -5262,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -5288,14 +5239,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q63" s="14" t="s">
+      <c r="Q63" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="R63" s="14" t="s">
+      <c r="R63" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -5321,16 +5272,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q64" s="10">
+      <c r="Q64" s="9">
         <f>SUM(O2:O68)</f>
         <v>1.7678514801424561</v>
       </c>
-      <c r="R64" s="10">
+      <c r="R64" s="9">
         <f>SUM(O69:O76)</f>
         <v>0.34130718070688087</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -5357,7 +5308,7 @@
         <v>2.3566569903130399E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -5384,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -5411,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -5438,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -5465,7 +5416,7 @@
         <v>1.9241263981052501E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -5492,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -5519,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -5546,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -5573,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -5600,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -5627,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -5682,97 +5633,97 @@
         <v>0.32206591672582835</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="14" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="15"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="14" t="s">
+      <c r="B84" s="14"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="10">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
         <v>0.1</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="9">
         <v>0.53</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="10">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
         <v>0.2</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="9">
         <v>0.71</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="10">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="9">
         <v>0.3</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="9">
         <v>0.76</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="10">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
         <v>0.4</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="9">
         <v>0.76</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="10">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
         <v>0.5</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="9">
         <v>0.71</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="10">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="9">
         <v>0.6</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="9">
         <v>0.71</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="10">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="9">
         <v>0.7</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="9">
         <v>0.77</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="10">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
         <v>0.8</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="9">
         <v>0.87</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="10">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
         <v>0.9</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="9">
         <v>0.95</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="10">
-        <v>1</v>
-      </c>
-      <c r="B95" s="10">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
+        <v>1</v>
+      </c>
+      <c r="B95" s="9">
         <v>0.99</v>
       </c>
     </row>
@@ -5791,20 +5742,20 @@
       <selection activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -5841,7 +5792,7 @@
       <c r="M1" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" t="s">
         <v>110</v>
       </c>
       <c r="O1" t="s">
@@ -5851,7 +5802,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5890,7 +5841,7 @@
         <v>0.84859704555418214</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5925,7 +5876,7 @@
         <v>1.72087287265925E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5960,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5995,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -6030,7 +5981,7 @@
         <v>1.6728021291428901E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -6065,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -6100,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -6135,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -6170,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -6205,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -6240,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -6275,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -6310,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -6345,7 +6296,7 @@
         <v>-1.62984167195979E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -6380,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -6415,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6450,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -6485,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -6540,7 +6491,7 @@
         <v>-0.52896275492646727</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -6575,7 +6526,7 @@
         <v>4.9936058186397299E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -6610,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -6645,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -6680,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -6715,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -6750,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -6805,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -6860,7 +6811,7 @@
         <v>-6.1474599046139222E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -6895,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -6922,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -6949,7 +6900,7 @@
         <v>5.1018631030200802E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6976,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -7031,7 +6982,7 @@
         <v>0.81995052563482784</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -7058,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -7085,7 +7036,7 @@
         <v>2.88965512610935E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -7112,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -7139,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>126</v>
       </c>
@@ -7194,7 +7145,7 @@
         <v>-0.11654661030243334</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -7249,7 +7200,7 @@
         <v>0.56818712214312661</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>146</v>
       </c>
@@ -7276,7 +7227,7 @@
         <v>9.5317991841759903E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -7303,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>148</v>
       </c>
@@ -7330,7 +7281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -7357,7 +7308,7 @@
         <v>1.15492550961894E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -7384,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -7411,7 +7362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -7438,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -7465,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -7492,7 +7443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -7519,7 +7470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -7546,7 +7497,7 @@
         <v>-1.35197689889467E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -7573,7 +7524,7 @@
         <v>4.2870694900063698E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>150</v>
       </c>
@@ -7600,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -7627,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>127</v>
       </c>
@@ -7682,7 +7633,7 @@
         <v>-1.4131849102201933E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -7737,7 +7688,7 @@
         <v>0.63730706288726502</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -7764,7 +7715,7 @@
         <v>9.5605322197137202E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>153</v>
       </c>
@@ -7791,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>154</v>
       </c>
@@ -7809,7 +7760,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="N58" s="20">
+      <c r="N58" s="1">
         <f>IF(SUM(N56:N57)=0,1,0)</f>
         <v>0</v>
       </c>
@@ -7818,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>155</v>
       </c>
@@ -7845,7 +7796,7 @@
         <v>4.0818070330751903E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>156</v>
       </c>
@@ -7872,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>157</v>
       </c>
@@ -7899,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -7926,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>159</v>
       </c>
@@ -7952,14 +7903,14 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q63" s="14" t="s">
+      <c r="Q63" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="R63" s="14" t="s">
+      <c r="R63" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>160</v>
       </c>
@@ -7985,16 +7936,16 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q64" s="10">
+      <c r="Q64" s="9">
         <f>SUM(O2:O60)</f>
         <v>1.7236407556347531</v>
       </c>
-      <c r="R64" s="10">
+      <c r="R64" s="9">
         <f>SUM(O61:O68)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>161</v>
       </c>
@@ -8021,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>162</v>
       </c>
@@ -8048,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -8075,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>164</v>
       </c>
@@ -8102,137 +8053,137 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="14" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="15"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="14" t="s">
+      <c r="B84" s="14"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="10">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
         <v>0.1</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="9">
         <v>0.96</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="10">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
         <v>0.2</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="9">
         <v>0.83</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="10">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="9">
         <v>0.3</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="9">
         <v>0.74</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="10">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
         <v>0.4</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="9">
         <v>0.69</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="10">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
         <v>0.5</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="9">
         <v>0.66</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="10">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="9">
         <v>0.6</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="9">
         <v>0.81</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="10">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="9">
         <v>0.7</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="9">
         <v>0.86</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="10">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
         <v>0.8</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="9">
         <v>0.9</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="10">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
         <v>0.9</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="9">
         <v>0.9</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="10">
-        <v>1</v>
-      </c>
-      <c r="B95" s="10">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
+        <v>1</v>
+      </c>
+      <c r="B95" s="9">
         <v>0.73</v>
       </c>
     </row>
@@ -8251,27 +8202,27 @@
       <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>93</v>
       </c>
       <c r="D1" t="s">
@@ -8301,7 +8252,7 @@
       <c r="M1" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" t="s">
         <v>110</v>
       </c>
       <c r="O1" t="s">
@@ -8311,14 +8262,14 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="17">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="B2" s="16">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
         <v>-0.108463</v>
       </c>
       <c r="D2" s="1"/>
@@ -8350,14 +8301,14 @@
         <v>0.95362935915789171</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>0.5</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>0.46342565000000002</v>
       </c>
       <c r="D3" s="1"/>
@@ -8385,14 +8336,14 @@
         <v>0.46342565000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="17">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
         <v>-5.9277000000000003E-2</v>
       </c>
       <c r="D4" s="1"/>
@@ -8420,14 +8371,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>2.9968000000000002E-2</v>
       </c>
       <c r="D5" s="1"/>
@@ -8455,14 +8406,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="17">
-        <v>0</v>
-      </c>
-      <c r="C6" s="17">
+      <c r="B6" s="16">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16">
         <v>1.171146E-2</v>
       </c>
       <c r="D6" s="1"/>
@@ -8490,14 +8441,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>0.5</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>-0.1543398</v>
       </c>
       <c r="D7" s="1"/>
@@ -8525,14 +8476,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="17">
-        <v>1</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16">
         <v>0.50484191</v>
       </c>
       <c r="D8" s="1"/>
@@ -8560,14 +8511,14 @@
         <v>0.50484191</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>2</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>-1.0743600000000001E-2</v>
       </c>
       <c r="D9" s="1"/>
@@ -8595,14 +8546,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>3</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>-2.0414999999999999E-2</v>
       </c>
       <c r="D10" s="1"/>
@@ -8630,14 +8581,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>-1.1572499999999999E-2</v>
       </c>
       <c r="D11" s="1"/>
@@ -8665,14 +8616,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="17">
-        <v>0</v>
-      </c>
-      <c r="C12" s="17">
+      <c r="B12" s="16">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
         <v>-0.19765640000000001</v>
       </c>
       <c r="D12" s="1"/>
@@ -8700,14 +8651,14 @@
         <v>-0.19765640000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="17">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17">
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16">
         <v>0.46968528999999998</v>
       </c>
       <c r="D13" s="1"/>
@@ -8735,14 +8686,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>9</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>-2.7095999999999999E-3</v>
       </c>
       <c r="D14" s="1"/>
@@ -8770,14 +8721,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>-3.8980300000000002E-2</v>
       </c>
       <c r="D15" s="1"/>
@@ -8805,14 +8756,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="17">
-        <v>0</v>
-      </c>
-      <c r="C16" s="17">
+      <c r="B16" s="16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16">
         <v>-0.50398920000000003</v>
       </c>
       <c r="D16" s="1"/>
@@ -8840,14 +8791,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>0.5</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>0.66420699999999999</v>
       </c>
       <c r="D17" s="1"/>
@@ -8875,14 +8826,14 @@
         <v>0.66420699999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="17">
-        <v>1</v>
-      </c>
-      <c r="C18" s="17">
+      <c r="B18" s="16">
+        <v>1</v>
+      </c>
+      <c r="C18" s="16">
         <v>-1.06823E-2</v>
       </c>
       <c r="D18" s="1"/>
@@ -8910,14 +8861,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>-2.4928700000000002E-2</v>
       </c>
       <c r="D19" s="1"/>
@@ -8945,14 +8896,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="17">
-        <v>0</v>
-      </c>
-      <c r="C20" s="17">
+      <c r="B20" s="16">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
         <v>9.0841400000000003E-2</v>
       </c>
       <c r="D20" s="1"/>
@@ -8980,14 +8931,14 @@
         <v>9.0841400000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="17">
-        <v>1</v>
-      </c>
-      <c r="C21" s="17">
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16">
         <v>-8.3142000000000008E-3</v>
       </c>
       <c r="D21" s="1"/>
@@ -9015,14 +8966,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>-1.6704400000000001E-2</v>
       </c>
       <c r="D22" s="1"/>
@@ -9050,14 +9001,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B23" s="17">
-        <v>1</v>
-      </c>
-      <c r="C23" s="17">
+      <c r="B23" s="16">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16">
         <v>8.0389639999999998E-2</v>
       </c>
       <c r="D23" s="1"/>
@@ -9085,14 +9036,14 @@
         <v>8.0389639999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>2</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>-9.2128000000000002E-3</v>
       </c>
       <c r="D24" s="1"/>
@@ -9120,14 +9071,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>3</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>-6.7203000000000002E-3</v>
       </c>
       <c r="D25" s="1"/>
@@ -9155,14 +9106,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="16">
         <v>4</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="16">
         <v>2.6290100000000002E-3</v>
       </c>
       <c r="D26" s="1"/>
@@ -9190,14 +9141,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <v>9</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="16">
         <v>2.1276900000000001E-2</v>
       </c>
       <c r="D27" s="1"/>
@@ -9225,14 +9176,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="16">
         <v>3.2136560000000002E-2</v>
       </c>
       <c r="D28" s="1"/>
@@ -9260,14 +9211,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B29" s="17">
-        <v>0</v>
-      </c>
-      <c r="C29" s="17">
+      <c r="B29" s="16">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
         <v>-0.18269360000000001</v>
       </c>
       <c r="D29" s="1"/>
@@ -9295,14 +9246,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B30" s="17">
-        <v>1</v>
-      </c>
-      <c r="C30" s="17">
+      <c r="B30" s="16">
+        <v>1</v>
+      </c>
+      <c r="C30" s="16">
         <v>0.49677812999999998</v>
       </c>
       <c r="L30" s="1">
@@ -9322,14 +9273,14 @@
         <v>0.49677812999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="16">
         <v>9</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="16">
         <v>-1.8900900000000002E-2</v>
       </c>
       <c r="L31" s="1">
@@ -9349,14 +9300,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="16">
         <v>-1.7394199999999999E-2</v>
       </c>
       <c r="L32" s="1">
@@ -9376,14 +9327,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="17">
-        <v>0</v>
-      </c>
-      <c r="C33" s="17">
+      <c r="B33" s="16">
+        <v>0</v>
+      </c>
+      <c r="C33" s="16">
         <v>1.49693E-3</v>
       </c>
       <c r="L33" s="1">
@@ -9403,14 +9354,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="17">
-        <v>1</v>
-      </c>
-      <c r="C34" s="17">
+      <c r="B34" s="16">
+        <v>1</v>
+      </c>
+      <c r="C34" s="16">
         <v>8.7341999999999997E-4</v>
       </c>
       <c r="L34" s="1">
@@ -9430,14 +9381,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="16">
         <v>2</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="16">
         <v>-0.48295569999999999</v>
       </c>
       <c r="L35" s="1">
@@ -9457,14 +9408,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <v>3</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="16">
         <v>0.44885784000000001</v>
       </c>
       <c r="L36" s="1">
@@ -9484,14 +9435,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
+    <row r="37" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="16">
         <v>4</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="16">
         <v>0.40530475999999999</v>
       </c>
       <c r="L37" s="1">
@@ -9511,14 +9462,14 @@
         <v>0.40530475999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="16">
         <v>-4.3964E-3</v>
       </c>
       <c r="L38" s="1">
@@ -9538,14 +9489,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="17">
-        <v>0</v>
-      </c>
-      <c r="C39" s="17">
+      <c r="B39" s="16">
+        <v>0</v>
+      </c>
+      <c r="C39" s="16">
         <v>7.9476030000000003E-2</v>
       </c>
       <c r="L39" s="1">
@@ -9565,14 +9516,14 @@
         <v>7.9476030000000003E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B40" s="17">
-        <v>1</v>
-      </c>
-      <c r="C40" s="17">
+      <c r="B40" s="16">
+        <v>1</v>
+      </c>
+      <c r="C40" s="16">
         <v>2.5520939999999999E-2</v>
       </c>
       <c r="L40" s="1">
@@ -9592,14 +9543,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="16">
         <v>8</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="16">
         <v>-8.0833999999999993E-3</v>
       </c>
       <c r="L41" s="1">
@@ -9619,14 +9570,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="16">
         <v>6.4846810000000005E-2</v>
       </c>
       <c r="L42" s="1">
@@ -9646,14 +9597,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="17">
-        <v>0</v>
-      </c>
-      <c r="C43" s="17">
+      <c r="B43" s="16">
+        <v>0</v>
+      </c>
+      <c r="C43" s="16">
         <v>0.48113492000000002</v>
       </c>
       <c r="L43" s="1">
@@ -9673,14 +9624,14 @@
         <v>0.48113492000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
+    <row r="44" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="17">
-        <v>1</v>
-      </c>
-      <c r="C44" s="17">
+      <c r="B44" s="16">
+        <v>1</v>
+      </c>
+      <c r="C44" s="16">
         <v>-0.23586699999999999</v>
       </c>
       <c r="L44" s="1">
@@ -9700,14 +9651,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
+    <row r="45" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="16">
         <v>2</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="16">
         <v>8.7944800000000004E-3</v>
       </c>
       <c r="L45" s="1">
@@ -9727,14 +9678,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
+    <row r="46" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="16">
         <v>4</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="16">
         <v>9.8716900000000007E-3</v>
       </c>
       <c r="L46" s="1">
@@ -9754,14 +9705,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
+    <row r="47" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="16">
         <v>3.6301960000000001E-2</v>
       </c>
       <c r="L47" s="1">
@@ -9781,14 +9732,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="16">
         <v>1.8117870000000001E-2</v>
       </c>
       <c r="L48" s="1">
@@ -9808,14 +9759,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
+    <row r="49" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B49" s="17">
-        <v>1</v>
-      </c>
-      <c r="C49" s="17">
+      <c r="B49" s="16">
+        <v>1</v>
+      </c>
+      <c r="C49" s="16">
         <v>4.5172249999999997E-2</v>
       </c>
       <c r="L49" s="1">
@@ -9835,14 +9786,14 @@
         <v>4.5172249999999997E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
+    <row r="50" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="16">
         <v>2</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="16">
         <v>5.5822099999999998E-3</v>
       </c>
       <c r="L50" s="1">
@@ -9862,14 +9813,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="s">
+    <row r="51" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="16">
         <v>3</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="16">
         <v>5.8069000000000003E-3</v>
       </c>
       <c r="L51" s="1">
@@ -9889,14 +9840,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="17" t="s">
+    <row r="52" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="16">
         <v>4</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="16">
         <v>1.7743700000000001E-2</v>
       </c>
       <c r="L52" s="1">
@@ -9916,14 +9867,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
+    <row r="53" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="16">
         <v>5</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="16">
         <v>-4.2630500000000002E-2</v>
       </c>
       <c r="L53" s="1">
@@ -9943,14 +9894,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+    <row r="54" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="16">
         <v>8</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="16">
         <v>4.4299129999999999E-2</v>
       </c>
       <c r="L54" s="1">
@@ -9970,14 +9921,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="s">
+    <row r="55" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="16">
         <v>9</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="16">
         <v>-2.6468700000000001E-2</v>
       </c>
       <c r="L55" s="1">
@@ -9997,14 +9948,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="s">
+    <row r="56" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="16">
         <v>1.2619709999999999E-2</v>
       </c>
       <c r="L56" s="1">
@@ -10024,14 +9975,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
+    <row r="57" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="B57" s="17">
-        <v>0</v>
-      </c>
-      <c r="C57" s="17">
+      <c r="B57" s="16">
+        <v>0</v>
+      </c>
+      <c r="C57" s="16">
         <v>3.8439010000000003E-2</v>
       </c>
       <c r="L57" s="1">
@@ -10051,14 +10002,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+    <row r="58" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B58" s="17">
-        <v>1</v>
-      </c>
-      <c r="C58" s="17">
+      <c r="B58" s="16">
+        <v>1</v>
+      </c>
+      <c r="C58" s="16">
         <v>-4.6159499999999999E-2</v>
       </c>
       <c r="L58" s="1">
@@ -10078,14 +10029,14 @@
         <v>-4.6159499999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="17" t="s">
+    <row r="59" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="16">
         <v>9</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="16">
         <v>3.7764700000000001E-3</v>
       </c>
       <c r="L59" s="1">
@@ -10105,14 +10056,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="17" t="s">
+    <row r="60" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="16">
         <v>1.103903E-2</v>
       </c>
       <c r="L60" s="1">
@@ -10132,14 +10083,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="17" t="s">
+    <row r="61" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="B61" s="17">
-        <v>0</v>
-      </c>
-      <c r="C61" s="17">
+      <c r="B61" s="16">
+        <v>0</v>
+      </c>
+      <c r="C61" s="16">
         <v>6.6024570000000005E-2</v>
       </c>
       <c r="L61" s="1">
@@ -10159,14 +10110,14 @@
         <v>6.6024570000000005E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
+    <row r="62" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="B62" s="17">
-        <v>1</v>
-      </c>
-      <c r="C62" s="17">
+      <c r="B62" s="16">
+        <v>1</v>
+      </c>
+      <c r="C62" s="16">
         <v>1.000522E-2</v>
       </c>
       <c r="L62" s="1">
@@ -10186,14 +10137,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="17" t="s">
+    <row r="63" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="16">
         <v>2.208599E-2</v>
       </c>
       <c r="L63" s="1">
@@ -10212,21 +10163,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q63" s="14" t="s">
+      <c r="Q63" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="R63" s="14" t="s">
+      <c r="R63" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="17" t="s">
+    <row r="64" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="B64" s="17">
-        <v>0</v>
-      </c>
-      <c r="C64" s="17">
+      <c r="B64" s="16">
+        <v>0</v>
+      </c>
+      <c r="C64" s="16">
         <v>6.0628559999999998E-2</v>
       </c>
       <c r="L64" s="1">
@@ -10245,23 +10196,23 @@
         <f t="shared" ref="O64:O74" si="5">N64*C64</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="10">
+      <c r="Q64" s="9">
         <f>SUM(O2:O74)</f>
         <v>3.1004835099999997</v>
       </c>
-      <c r="R64" s="10">
+      <c r="R64" s="9">
         <f>SUM(O75:O77)</f>
         <v>8.0839837777777757E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="17" t="s">
+    <row r="65" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B65" s="17">
-        <v>1</v>
-      </c>
-      <c r="C65" s="17">
+      <c r="B65" s="16">
+        <v>1</v>
+      </c>
+      <c r="C65" s="16">
         <v>0.43628489999999998</v>
       </c>
       <c r="L65" s="1">
@@ -10281,14 +10232,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
+    <row r="66" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="16">
         <v>8</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="16">
         <v>-7.8267900000000001E-2</v>
       </c>
       <c r="L66" s="1">
@@ -10308,14 +10259,14 @@
         <v>-7.8267900000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="17" t="s">
+    <row r="67" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="16">
         <v>-2.08922E-2</v>
       </c>
       <c r="L67" s="1">
@@ -10335,14 +10286,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="17" t="s">
+    <row r="68" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="17">
-        <v>0</v>
-      </c>
-      <c r="C68" s="17">
+      <c r="B68" s="16">
+        <v>0</v>
+      </c>
+      <c r="C68" s="16">
         <v>-1.3308E-3</v>
       </c>
       <c r="L68" s="1">
@@ -10362,14 +10313,14 @@
         <v>-1.3308E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
+    <row r="69" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B69" s="17">
-        <v>1</v>
-      </c>
-      <c r="C69" s="17">
+      <c r="B69" s="16">
+        <v>1</v>
+      </c>
+      <c r="C69" s="16">
         <v>-4.96471E-2</v>
       </c>
       <c r="L69" s="1">
@@ -10389,14 +10340,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
+    <row r="70" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="16">
         <v>8</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="16">
         <v>6.6573129999999994E-2</v>
       </c>
       <c r="L70" s="1">
@@ -10416,14 +10367,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
+    <row r="71" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="16">
         <v>1.2465560000000001E-2</v>
       </c>
       <c r="L71" s="1">
@@ -10443,14 +10394,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="17" t="s">
+    <row r="72" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="B72" s="17">
-        <v>0</v>
-      </c>
-      <c r="C72" s="17">
+      <c r="B72" s="16">
+        <v>0</v>
+      </c>
+      <c r="C72" s="16">
         <v>4.6301849999999999E-2</v>
       </c>
       <c r="L72" s="1">
@@ -10470,14 +10421,14 @@
         <v>4.6301849999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="17" t="s">
+    <row r="73" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="B73" s="17">
-        <v>1</v>
-      </c>
-      <c r="C73" s="17">
+      <c r="B73" s="16">
+        <v>1</v>
+      </c>
+      <c r="C73" s="16">
         <v>-3.8513899999999997E-2</v>
       </c>
       <c r="L73" s="1">
@@ -10497,14 +10448,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
+    <row r="74" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="16">
         <v>8.8946999999999995E-4</v>
       </c>
       <c r="L74" s="1">
@@ -10524,14 +10475,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="17" t="s">
+    <row r="75" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C75" s="16">
         <v>-1.2541998999999999</v>
       </c>
       <c r="D75" t="str">
@@ -10579,14 +10530,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" s="17" t="s">
+    <row r="76" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="16">
         <v>-0.69185620000000003</v>
       </c>
       <c r="D76" t="str">
@@ -10634,14 +10585,14 @@
         <v>-7.6872911111111109E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="17" t="s">
+    <row r="77" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="16">
         <v>0.70970736999999995</v>
       </c>
       <c r="D77" t="str">
@@ -10689,97 +10640,97 @@
         <v>0.15771274888888887</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="14" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="15"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="14" t="s">
+      <c r="B84" s="14"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="10">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
         <v>0.1</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="9">
         <v>0.78</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="10">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
         <v>0.2</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="10">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="9">
         <v>0.3</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="9">
         <v>0.79</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="10">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
         <v>0.4</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="9">
         <v>0.78</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="10">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
         <v>0.5</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="9">
         <v>0.76</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="10">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="9">
         <v>0.6</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="9">
         <v>0.82</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="10">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="9">
         <v>0.7</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="9">
         <v>0.85</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="10">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
         <v>0.8</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="9">
         <v>0.88</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="10">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
         <v>0.9</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="9">
         <v>0.91</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="10">
-        <v>1</v>
-      </c>
-      <c r="B95" s="10">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
+        <v>1</v>
+      </c>
+      <c r="B95" s="9">
         <v>0.95</v>
       </c>
     </row>
@@ -10798,20 +10749,20 @@
       <selection activeCell="N125" sqref="N125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -10848,7 +10799,7 @@
       <c r="M1" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" t="s">
         <v>110</v>
       </c>
       <c r="O1" t="s">
@@ -10858,7 +10809,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -10897,7 +10848,7 @@
         <v>0.83824149360175704</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -10932,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -10967,7 +10918,7 @@
         <v>0.443052269743343</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -11002,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -11037,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -11072,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -11107,7 +11058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -11142,7 +11093,7 @@
         <v>0.44809482722441302</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -11177,7 +11128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>190</v>
       </c>
@@ -11212,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>191</v>
       </c>
@@ -11247,7 +11198,7 @@
         <v>0.20123787612993899</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>192</v>
       </c>
@@ -11282,7 +11233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>193</v>
       </c>
@@ -11317,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>194</v>
       </c>
@@ -11352,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>195</v>
       </c>
@@ -11387,7 +11338,7 @@
         <v>7.3746442661093902E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -11422,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>197</v>
       </c>
@@ -11457,7 +11408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>198</v>
       </c>
@@ -11492,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -11527,7 +11478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -11562,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -11597,7 +11548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -11632,7 +11583,7 @@
         <v>-7.5929696974691603E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -11667,7 +11618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>233</v>
       </c>
@@ -11702,7 +11653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>172</v>
       </c>
@@ -11737,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -11772,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -11807,7 +11758,7 @@
         <v>4.2989586154098799E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>175</v>
       </c>
@@ -11842,7 +11793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>234</v>
       </c>
@@ -11869,7 +11820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -11896,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>201</v>
       </c>
@@ -11923,7 +11874,7 @@
         <v>-2.6349840947583799E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -11950,7 +11901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>203</v>
       </c>
@@ -11977,7 +11928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -12004,7 +11955,7 @@
         <v>-1.3562681339855E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -12031,7 +11982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -12058,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -12085,7 +12036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -12112,7 +12063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -12139,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -12166,7 +12117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -12193,7 +12144,7 @@
         <v>1.0814999159852399E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -12220,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -12247,7 +12198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>216</v>
       </c>
@@ -12274,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>217</v>
       </c>
@@ -12301,7 +12252,7 @@
         <v>1.17299763859767E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>218</v>
       </c>
@@ -12328,7 +12279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>219</v>
       </c>
@@ -12355,7 +12306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>235</v>
       </c>
@@ -12382,7 +12333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>236</v>
       </c>
@@ -12409,7 +12360,7 @@
         <v>-1.0207461779197799E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>237</v>
       </c>
@@ -12436,7 +12387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>238</v>
       </c>
@@ -12463,7 +12414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>223</v>
       </c>
@@ -12490,7 +12441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>224</v>
       </c>
@@ -12517,7 +12468,7 @@
         <v>0.474694408352555</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>225</v>
       </c>
@@ -12544,7 +12495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>226</v>
       </c>
@@ -12571,7 +12522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>208</v>
       </c>
@@ -12598,7 +12549,7 @@
         <v>-2.0510353420310601E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>209</v>
       </c>
@@ -12625,7 +12576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>210</v>
       </c>
@@ -12652,7 +12603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>211</v>
       </c>
@@ -12679,7 +12630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>212</v>
       </c>
@@ -12706,7 +12657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>213</v>
       </c>
@@ -12733,7 +12684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -12759,14 +12710,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q63" s="14" t="s">
+      <c r="Q63" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="R63" s="14" t="s">
+      <c r="R63" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>215</v>
       </c>
@@ -12792,16 +12743,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q64" s="10">
+      <c r="Q64" s="9">
         <f>SUM(O2:O86)</f>
         <v>1.8758209379620057</v>
       </c>
-      <c r="R64" s="10">
+      <c r="R64" s="9">
         <f>SUM(O87:O88)</f>
         <v>-1.6722995916151486</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>239</v>
       </c>
@@ -12828,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>240</v>
       </c>
@@ -12855,7 +12806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>241</v>
       </c>
@@ -12882,7 +12833,7 @@
         <v>4.3730101727960602E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>242</v>
       </c>
@@ -12909,7 +12860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>243</v>
       </c>
@@ -12936,7 +12887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>244</v>
       </c>
@@ -12963,7 +12914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>245</v>
       </c>
@@ -12990,7 +12941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>246</v>
       </c>
@@ -13017,7 +12968,7 @@
         <v>5.3715994730592097E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>247</v>
       </c>
@@ -13044,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -13071,7 +13022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -13098,7 +13049,7 @@
         <v>-1.40085543376866E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -13125,7 +13076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -13152,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>248</v>
       </c>
@@ -13179,7 +13130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>249</v>
       </c>
@@ -13206,7 +13157,7 @@
         <v>0.23253391399776099</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>250</v>
       </c>
@@ -13233,7 +13184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>251</v>
       </c>
@@ -13260,7 +13211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>252</v>
       </c>
@@ -13287,7 +13238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>256</v>
       </c>
@@ -13314,7 +13265,7 @@
         <v>-1.9157983884917299E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -13341,7 +13292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>258</v>
       </c>
@@ -13368,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>259</v>
       </c>
@@ -13395,7 +13346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -13450,7 +13401,7 @@
         <v>-2.2785170277268798</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -13505,97 +13456,97 @@
         <v>0.60621743611173107</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A93" s="14" t="s">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B93" s="15"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A94" s="14" t="s">
+      <c r="B93" s="14"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A95" s="10">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
         <v>0.1</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95" s="9">
         <v>0.89</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A96" s="10">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="9">
         <v>0.2</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="9">
         <v>0.87</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="10">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="9">
         <v>0.3</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="9">
         <v>0.84</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="10">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="9">
         <v>0.4</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="9">
         <v>0.82</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="10">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="9">
         <v>0.5</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="10">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="9">
         <v>0.6</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="9">
         <v>0.89</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="10">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="9">
         <v>0.7</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="9">
         <v>0.91</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="10">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="9">
         <v>0.8</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102" s="9">
         <v>0.93</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="10">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="9">
         <v>0.9</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="9">
         <v>0.94</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="10">
-        <v>1</v>
-      </c>
-      <c r="B104" s="10">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="9">
+        <v>1</v>
+      </c>
+      <c r="B104" s="9">
         <v>0.96</v>
       </c>
     </row>
